--- a/analyze/rackingData-pinch.xlsx
+++ b/analyze/rackingData-pinch.xlsx
@@ -8,20 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronyang/Documents/Playground/mediaPipe/analyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC4A57C-320E-1E4B-A253-BFF00BD89FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F429597E-D149-074F-8788-C83FFCBA5B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-4900" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-4900" windowWidth="51200" windowHeight="26920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rackingData-pinch" sheetId="1" r:id="rId1"/>
     <sheet name="camera-11am position" sheetId="2" r:id="rId2"/>
     <sheet name="camera-top" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'camera-11am position'!$B$1:$B$228</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'camera-11am position'!$B$1:$B$228</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'camera-11am position'!$B$1:$B$228</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -55,6 +50,18 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>up=true</t>
+  </si>
+  <si>
+    <t>down=true</t>
+  </si>
+  <si>
+    <t>if up=true &amp; down=true: click detected, up&amp;down=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> up&amp;down=false</t>
   </si>
 </sst>
 </file>
@@ -2409,6 +2416,1018 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'camera-11am position'!$A$432:$A$451</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.53827029466628995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53855502605438199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53855502605438199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54257619380950906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54257619380950906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55015784502029397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55015784502029397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55703365802764804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55703365802764804</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.555652856826782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.555652856826782</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54732930660247803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54732930660247803</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54165685176849299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54165685176849299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.538244128227233</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.538244128227233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53765380382537797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53765380382537797</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53738212585449197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61CE-9844-95B1-FA25ABCB443D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2106147056"/>
+        <c:axId val="2106148784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2106147056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106148784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2106148784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106147056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'camera-11am position'!$U$427:$U$444</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.53924947977065996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53941601514816195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53941601514816195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53904241323471003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53904241323471003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53908169269561701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53908169269561701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.539675712585449</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.539675712585449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54012697935104304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54012697935104304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53943395614624001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53943395614624001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54012316465377797</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54012316465377797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53869581222534102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53869581222534102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53827029466628995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05FC-8843-AE00-61B84197A73B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="418827055"/>
+        <c:axId val="460871199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="418827055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460871199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460871199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.56000000000000005"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418827055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'camera-11am position'!$Q$427:$Q$446</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.53827029466628995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53855502605438199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53855502605438199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54257619380950906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54257619380950906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55015784502029397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55015784502029397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55703365802764804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55703365802764804</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.555652856826782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.555652856826782</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54732930660247803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54732930660247803</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54165685176849299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54165685176849299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.538244128227233</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.538244128227233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53765380382537797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53765380382537797</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53738212585449197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD49-954B-97A0-2B2C878A5B08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2121625936"/>
+        <c:axId val="2121354176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2121625936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121354176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2121354176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121625936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3047,7 +4066,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3738,7 +4757,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4430,7 +5449,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10378,21 +11397,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:yVal>
             <c:numRef>
               <c:f>'camera-11am position'!$A$400:$A$598</c:f>
@@ -12321,6 +13325,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15222,6 +16346,1554 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20208,14 +22880,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>408</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>420</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20237,6 +22909,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D15F7B7-BDA2-E10F-29D1-605FF332011B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A83B5F-326C-2286-31BB-B94E2B25C60A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BBF1A6B-3DCF-9A6C-6593-F20AC40D79D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23490,13 +26270,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A2014D-7D0A-9948-8273-002E266FB206}">
-  <dimension ref="A1:C1243"/>
+  <dimension ref="A1:X1243"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="I428" sqref="I428"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="N446" sqref="N446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="20" max="20" width="48.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -27898,7 +30681,7 @@
         <v>-0.145079091191291</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.53940683603286699</v>
       </c>
@@ -27909,7 +30692,7 @@
         <v>-0.142143338918685</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.54057019948959295</v>
       </c>
@@ -27920,7 +30703,7 @@
         <v>-0.14082302153110501</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.54088383913040095</v>
       </c>
@@ -27931,7 +30714,7 @@
         <v>-0.14672942459583199</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.53951585292816095</v>
       </c>
@@ -27942,7 +30725,7 @@
         <v>-0.14673027396202001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.53951585292816095</v>
       </c>
@@ -27953,7 +30736,7 @@
         <v>-0.14673027396202001</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.53951585292816095</v>
       </c>
@@ -27964,7 +30747,7 @@
         <v>-0.14673027396202001</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.53968489170074396</v>
       </c>
@@ -27975,7 +30758,7 @@
         <v>-0.14473614096641499</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.54083597660064697</v>
       </c>
@@ -27986,7 +30769,7 @@
         <v>-0.14302508533000899</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.54023075103759699</v>
       </c>
@@ -27997,7 +30780,7 @@
         <v>-0.153323158621788</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.54023075103759699</v>
       </c>
@@ -28008,7 +30791,7 @@
         <v>-0.153323158621788</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.53934717178344704</v>
       </c>
@@ -28019,7 +30802,7 @@
         <v>-0.14893864095211001</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.53934717178344704</v>
       </c>
@@ -28030,7 +30813,7 @@
         <v>-0.14893864095211001</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.53924947977065996</v>
       </c>
@@ -28040,8 +30823,11 @@
       <c r="C413">
         <v>-0.150689527392387</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.53924947977065996</v>
       </c>
@@ -28051,8 +30837,11 @@
       <c r="C414">
         <v>-0.150689527392387</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.53941601514816195</v>
       </c>
@@ -28062,8 +30851,11 @@
       <c r="C415">
         <v>-0.14793133735656699</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.53941601514816195</v>
       </c>
@@ -28073,8 +30865,11 @@
       <c r="C416">
         <v>-0.14793133735656699</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0.53904241323471003</v>
       </c>
@@ -28084,8 +30879,11 @@
       <c r="C417">
         <v>-0.14594981074333099</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>0.53904241323471003</v>
       </c>
@@ -28095,8 +30893,11 @@
       <c r="C418">
         <v>-0.14594981074333099</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>0.53908169269561701</v>
       </c>
@@ -28106,8 +30907,11 @@
       <c r="C419">
         <v>-0.147272244095802</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0.53908169269561701</v>
       </c>
@@ -28117,8 +30921,11 @@
       <c r="C420">
         <v>-0.147272244095802</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>0.539675712585449</v>
       </c>
@@ -28128,8 +30935,11 @@
       <c r="C421">
         <v>-0.14836838841438199</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>0.539675712585449</v>
       </c>
@@ -28139,8 +30949,19 @@
       <c r="C422">
         <v>-0.14836838841438199</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q422">
+        <v>0.53943395614624001</v>
+      </c>
+      <c r="R422">
+        <f t="shared" ref="R422:R427" si="0">Q422-Q416</f>
+        <v>0.53943395614624001</v>
+      </c>
+      <c r="S422" t="str">
+        <f t="shared" ref="S422:S427" si="1">IF(R422&gt;0.01, "up", IF(R422&lt;-0.01, "down", "stay"))</f>
+        <v>up</v>
+      </c>
+    </row>
+    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>0.54012697935104304</v>
       </c>
@@ -28150,8 +30971,19 @@
       <c r="C423">
         <v>-0.148406386375427</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q423">
+        <v>0.54012316465377797</v>
+      </c>
+      <c r="R423">
+        <f t="shared" si="0"/>
+        <v>0.54012316465377797</v>
+      </c>
+      <c r="S423" t="str">
+        <f t="shared" si="1"/>
+        <v>up</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>0.54012697935104304</v>
       </c>
@@ -28161,8 +30993,19 @@
       <c r="C424">
         <v>-0.148406386375427</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q424">
+        <v>0.54012316465377797</v>
+      </c>
+      <c r="R424">
+        <f t="shared" si="0"/>
+        <v>0.54012316465377797</v>
+      </c>
+      <c r="S424" t="str">
+        <f t="shared" si="1"/>
+        <v>up</v>
+      </c>
+    </row>
+    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>0.53943395614624001</v>
       </c>
@@ -28172,8 +31015,19 @@
       <c r="C425">
         <v>-0.14599230885505601</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q425">
+        <v>0.53869581222534102</v>
+      </c>
+      <c r="R425">
+        <f t="shared" si="0"/>
+        <v>0.53869581222534102</v>
+      </c>
+      <c r="S425" t="str">
+        <f t="shared" si="1"/>
+        <v>up</v>
+      </c>
+    </row>
+    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>0.53943395614624001</v>
       </c>
@@ -28183,8 +31037,19 @@
       <c r="C426">
         <v>-0.14599230885505601</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q426">
+        <v>0.53869581222534102</v>
+      </c>
+      <c r="R426">
+        <f t="shared" si="0"/>
+        <v>0.53869581222534102</v>
+      </c>
+      <c r="S426" t="str">
+        <f t="shared" si="1"/>
+        <v>up</v>
+      </c>
+    </row>
+    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>0.54012316465377797</v>
       </c>
@@ -28194,8 +31059,22 @@
       <c r="C427">
         <v>-0.14902262389659801</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q427">
+        <v>0.53827029466628995</v>
+      </c>
+      <c r="R427">
+        <f t="shared" si="0"/>
+        <v>0.53827029466628995</v>
+      </c>
+      <c r="S427" t="str">
+        <f t="shared" si="1"/>
+        <v>up</v>
+      </c>
+      <c r="U427">
+        <v>0.53924947977065996</v>
+      </c>
+    </row>
+    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>0.54012316465377797</v>
       </c>
@@ -28205,8 +31084,22 @@
       <c r="C428">
         <v>-0.14902262389659801</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q428">
+        <v>0.53855502605438199</v>
+      </c>
+      <c r="R428">
+        <f t="shared" ref="R428:R432" si="2">Q428-Q422</f>
+        <v>-8.7893009185802118E-4</v>
+      </c>
+      <c r="S428" t="str">
+        <f t="shared" ref="S428:S432" si="3">IF(R428&gt;0.01, "up", IF(R428&lt;-0.01, "down", "stay"))</f>
+        <v>stay</v>
+      </c>
+      <c r="U428">
+        <v>0.53941601514816195</v>
+      </c>
+    </row>
+    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>0.53869581222534102</v>
       </c>
@@ -28216,8 +31109,22 @@
       <c r="C429">
         <v>-0.145989924669265</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q429">
+        <v>0.53855502605438199</v>
+      </c>
+      <c r="R429">
+        <f t="shared" si="2"/>
+        <v>-1.568138599395974E-3</v>
+      </c>
+      <c r="S429" t="str">
+        <f t="shared" si="3"/>
+        <v>stay</v>
+      </c>
+      <c r="U429">
+        <v>0.53941601514816195</v>
+      </c>
+    </row>
+    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>0.53869581222534102</v>
       </c>
@@ -28227,8 +31134,22 @@
       <c r="C430">
         <v>-0.145989924669265</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q430">
+        <v>0.54257619380950906</v>
+      </c>
+      <c r="R430">
+        <f t="shared" si="2"/>
+        <v>2.4530291557310901E-3</v>
+      </c>
+      <c r="S430" t="str">
+        <f t="shared" si="3"/>
+        <v>stay</v>
+      </c>
+      <c r="U430">
+        <v>0.53904241323471003</v>
+      </c>
+    </row>
+    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>0.53827029466628995</v>
       </c>
@@ -28238,8 +31159,22 @@
       <c r="C431">
         <v>-0.14744792878627699</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q431">
+        <v>0.54257619380950906</v>
+      </c>
+      <c r="R431">
+        <f t="shared" si="2"/>
+        <v>3.8803815841680356E-3</v>
+      </c>
+      <c r="S431" t="str">
+        <f t="shared" si="3"/>
+        <v>stay</v>
+      </c>
+      <c r="U431">
+        <v>0.53904241323471003</v>
+      </c>
+    </row>
+    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>0.53827029466628995</v>
       </c>
@@ -28249,8 +31184,25 @@
       <c r="C432">
         <v>-0.14744792878627699</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q432">
+        <v>0.55015784502029397</v>
+      </c>
+      <c r="R432">
+        <f t="shared" si="2"/>
+        <v>1.1462032794952948E-2</v>
+      </c>
+      <c r="S432" t="str">
+        <f t="shared" si="3"/>
+        <v>up</v>
+      </c>
+      <c r="T432" t="s">
+        <v>5</v>
+      </c>
+      <c r="U432">
+        <v>0.53908169269561701</v>
+      </c>
+    </row>
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>0.53855502605438199</v>
       </c>
@@ -28260,8 +31212,29 @@
       <c r="C433">
         <v>-0.14301161468029</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q433">
+        <v>0.55015784502029397</v>
+      </c>
+      <c r="R433">
+        <f>Q433-Q427</f>
+        <v>1.1887550354004017E-2</v>
+      </c>
+      <c r="S433" t="str">
+        <f>IF(R433&gt;0.01, "up", IF(R433&lt;-0.01, "down", "stay"))</f>
+        <v>up</v>
+      </c>
+      <c r="T433" t="s">
+        <v>5</v>
+      </c>
+      <c r="U433">
+        <v>0.53908169269561701</v>
+      </c>
+      <c r="V433">
+        <f>U433-U427</f>
+        <v>-1.6778707504294665E-4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>0.53855502605438199</v>
       </c>
@@ -28271,8 +31244,29 @@
       <c r="C434">
         <v>-0.14301161468029</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q434">
+        <v>0.55703365802764804</v>
+      </c>
+      <c r="R434">
+        <f t="shared" ref="R434:R446" si="4">Q434-Q428</f>
+        <v>1.8478631973266046E-2</v>
+      </c>
+      <c r="S434" t="str">
+        <f t="shared" ref="S434:S446" si="5">IF(R434&gt;0.01, "up", IF(R434&lt;-0.01, "down", "stay"))</f>
+        <v>up</v>
+      </c>
+      <c r="T434" t="s">
+        <v>5</v>
+      </c>
+      <c r="U434">
+        <v>0.539675712585449</v>
+      </c>
+      <c r="V434">
+        <f t="shared" ref="V434:V444" si="6">U434-U428</f>
+        <v>2.5969743728704309E-4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>0.54257619380950906</v>
       </c>
@@ -28282,8 +31276,29 @@
       <c r="C435">
         <v>-0.15021544694900499</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q435">
+        <v>0.55703365802764804</v>
+      </c>
+      <c r="R435">
+        <f t="shared" si="4"/>
+        <v>1.8478631973266046E-2</v>
+      </c>
+      <c r="S435" t="str">
+        <f t="shared" si="5"/>
+        <v>up</v>
+      </c>
+      <c r="T435" t="s">
+        <v>5</v>
+      </c>
+      <c r="U435">
+        <v>0.539675712585449</v>
+      </c>
+      <c r="V435">
+        <f t="shared" si="6"/>
+        <v>2.5969743728704309E-4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>0.54257619380950906</v>
       </c>
@@ -28293,8 +31308,29 @@
       <c r="C436">
         <v>-0.15021544694900499</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q436">
+        <v>0.555652856826782</v>
+      </c>
+      <c r="R436">
+        <f t="shared" si="4"/>
+        <v>1.3076663017272949E-2</v>
+      </c>
+      <c r="S436" t="str">
+        <f t="shared" si="5"/>
+        <v>up</v>
+      </c>
+      <c r="T436" t="s">
+        <v>5</v>
+      </c>
+      <c r="U436">
+        <v>0.54012697935104304</v>
+      </c>
+      <c r="V436">
+        <f t="shared" si="6"/>
+        <v>1.0845661163330078E-3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>0.55015784502029397</v>
       </c>
@@ -28304,8 +31340,29 @@
       <c r="C437">
         <v>-0.148975655436515</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q437">
+        <v>0.555652856826782</v>
+      </c>
+      <c r="R437">
+        <f t="shared" si="4"/>
+        <v>1.3076663017272949E-2</v>
+      </c>
+      <c r="S437" t="str">
+        <f t="shared" si="5"/>
+        <v>up</v>
+      </c>
+      <c r="T437" t="s">
+        <v>5</v>
+      </c>
+      <c r="U437">
+        <v>0.54012697935104304</v>
+      </c>
+      <c r="V437">
+        <f t="shared" si="6"/>
+        <v>1.0845661163330078E-3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>0.55015784502029397</v>
       </c>
@@ -28315,8 +31372,26 @@
       <c r="C438">
         <v>-0.148975655436515</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q438">
+        <v>0.54732930660247803</v>
+      </c>
+      <c r="R438">
+        <f t="shared" si="4"/>
+        <v>-2.8285384178159401E-3</v>
+      </c>
+      <c r="S438" t="str">
+        <f t="shared" si="5"/>
+        <v>stay</v>
+      </c>
+      <c r="U438">
+        <v>0.53943395614624001</v>
+      </c>
+      <c r="V438">
+        <f t="shared" si="6"/>
+        <v>3.5226345062300268E-4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>0.55703365802764804</v>
       </c>
@@ -28326,8 +31401,26 @@
       <c r="C439">
         <v>-0.14594022929668399</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q439">
+        <v>0.54732930660247803</v>
+      </c>
+      <c r="R439">
+        <f t="shared" si="4"/>
+        <v>-2.8285384178159401E-3</v>
+      </c>
+      <c r="S439" t="str">
+        <f t="shared" si="5"/>
+        <v>stay</v>
+      </c>
+      <c r="U439">
+        <v>0.53943395614624001</v>
+      </c>
+      <c r="V439">
+        <f t="shared" si="6"/>
+        <v>3.5226345062300268E-4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>0.55703365802764804</v>
       </c>
@@ -28337,8 +31430,29 @@
       <c r="C440">
         <v>-0.14594022929668399</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q440">
+        <v>0.54165685176849299</v>
+      </c>
+      <c r="R440">
+        <f t="shared" si="4"/>
+        <v>-1.5376806259155051E-2</v>
+      </c>
+      <c r="S440" t="str">
+        <f t="shared" si="5"/>
+        <v>down</v>
+      </c>
+      <c r="T440" t="s">
+        <v>6</v>
+      </c>
+      <c r="U440">
+        <v>0.54012316465377797</v>
+      </c>
+      <c r="V440">
+        <f t="shared" si="6"/>
+        <v>4.4745206832896844E-4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>0.555652856826782</v>
       </c>
@@ -28348,8 +31462,29 @@
       <c r="C441">
         <v>-0.14674335718154899</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q441">
+        <v>0.54165685176849299</v>
+      </c>
+      <c r="R441">
+        <f t="shared" si="4"/>
+        <v>-1.5376806259155051E-2</v>
+      </c>
+      <c r="S441" t="str">
+        <f t="shared" si="5"/>
+        <v>down</v>
+      </c>
+      <c r="T441" t="s">
+        <v>6</v>
+      </c>
+      <c r="U441">
+        <v>0.54012316465377797</v>
+      </c>
+      <c r="V441">
+        <f t="shared" si="6"/>
+        <v>4.4745206832896844E-4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>0.555652856826782</v>
       </c>
@@ -28359,8 +31494,29 @@
       <c r="C442">
         <v>-0.14674335718154899</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q442">
+        <v>0.538244128227233</v>
+      </c>
+      <c r="R442">
+        <f t="shared" si="4"/>
+        <v>-1.7408728599549006E-2</v>
+      </c>
+      <c r="S442" t="str">
+        <f t="shared" si="5"/>
+        <v>down</v>
+      </c>
+      <c r="T442" t="s">
+        <v>6</v>
+      </c>
+      <c r="U442">
+        <v>0.53869581222534102</v>
+      </c>
+      <c r="V442">
+        <f t="shared" si="6"/>
+        <v>-1.4311671257020153E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>0.54732930660247803</v>
       </c>
@@ -28370,8 +31526,29 @@
       <c r="C443">
         <v>-0.13827136158943101</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q443">
+        <v>0.538244128227233</v>
+      </c>
+      <c r="R443">
+        <f t="shared" si="4"/>
+        <v>-1.7408728599549006E-2</v>
+      </c>
+      <c r="S443" t="str">
+        <f t="shared" si="5"/>
+        <v>down</v>
+      </c>
+      <c r="T443" t="s">
+        <v>6</v>
+      </c>
+      <c r="U443">
+        <v>0.53869581222534102</v>
+      </c>
+      <c r="V443">
+        <f t="shared" si="6"/>
+        <v>-1.4311671257020153E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>0.54732930660247803</v>
       </c>
@@ -28381,8 +31558,33 @@
       <c r="C444">
         <v>-0.13827136158943101</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q444">
+        <v>0.53765380382537797</v>
+      </c>
+      <c r="R444">
+        <f t="shared" si="4"/>
+        <v>-9.6755027771000535E-3</v>
+      </c>
+      <c r="S444" t="str">
+        <f t="shared" si="5"/>
+        <v>stay</v>
+      </c>
+      <c r="T444" t="s">
+        <v>7</v>
+      </c>
+      <c r="U444">
+        <v>0.53827029466628995</v>
+      </c>
+      <c r="V444">
+        <f t="shared" si="6"/>
+        <v>-1.1636614799500622E-3</v>
+      </c>
+      <c r="X444">
+        <f>0.54-0.535</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>0.54165685176849299</v>
       </c>
@@ -28392,8 +31594,22 @@
       <c r="C445">
         <v>-0.14670170843601199</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q445">
+        <v>0.53765380382537797</v>
+      </c>
+      <c r="R445">
+        <f t="shared" si="4"/>
+        <v>-9.6755027771000535E-3</v>
+      </c>
+      <c r="S445" t="str">
+        <f t="shared" si="5"/>
+        <v>stay</v>
+      </c>
+      <c r="T445" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>0.54165685176849299</v>
       </c>
@@ -28403,8 +31619,22 @@
       <c r="C446">
         <v>-0.14670170843601199</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q446">
+        <v>0.53738212585449197</v>
+      </c>
+      <c r="R446">
+        <f t="shared" si="4"/>
+        <v>-4.2747259140010208E-3</v>
+      </c>
+      <c r="S446" t="str">
+        <f t="shared" si="5"/>
+        <v>stay</v>
+      </c>
+      <c r="T446" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>0.538244128227233</v>
       </c>
@@ -28415,7 +31645,7 @@
         <v>-0.14657416939735399</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>0.538244128227233</v>
       </c>
@@ -37181,8 +40411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E68B98A-BD3C-DD42-B8B6-AD7696086DDD}">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
